--- a/QPSK_project/16QAM20bits.xlsx
+++ b/QPSK_project/16QAM20bits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moonj\source\repos\moonjunyyy\QPSK_project\QPSK_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C433752-4849-4CA8-B687-2A8C0999F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DFF29A7-A313-4B8E-911E-210BBC331EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="16QAM20bits" sheetId="1" r:id="rId1"/>
@@ -706,189 +706,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'16QAM20bits'!$B$1:$B$100</c:f>
+              <c:f>'16QAM20bits'!$B$1:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1.89737</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.21818</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>-0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>-1.21818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.89737</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.3908200000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.3908200000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.89737</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-1.21818</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>-0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>1.21818</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.89737</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3908200000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.3908200000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-1.89737</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.3908200000000002</c:v>
+                  <c:v>-1.21818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.6502500000000002</c:v>
+                  <c:v>-0.41975800000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.6502500000000002</c:v>
+                  <c:v>0.41975800000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.3908200000000002</c:v>
+                  <c:v>1.21818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.89737</c:v>
+                  <c:v>1.89737</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.21818</c:v>
+                  <c:v>2.3908200000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.41975800000000002</c:v>
+                  <c:v>2.6502500000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41975800000000002</c:v>
+                  <c:v>2.6502500000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.21818</c:v>
+                  <c:v>2.3908200000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.89737</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3908200000000002</c:v>
+                  <c:v>1.21818</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.6502500000000002</c:v>
+                  <c:v>0.41975800000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6502500000000002</c:v>
+                  <c:v>-0.41975800000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3908200000000002</c:v>
+                  <c:v>-1.21818</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1.89737</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.21818</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.41975800000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.41975800000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.21818</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.63245600000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.1878200000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.6269100000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.9067499999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.9999400000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.89737</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>1.6090599999999999</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>1.1632499999999999</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>0.60357700000000003</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>-1.51824E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.63245600000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-1.1878200000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-1.6269100000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-1.9067499999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.9999400000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-1.89737</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.6090599999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-1.1632499999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.60357700000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.51824E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-1.89737</c:v>
@@ -954,61 +954,361 @@
                   <c:v>1.89737</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1.21818</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>-0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>-1.21818</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.89737</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-2.3908200000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.6502500000000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.3908200000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-1.89737</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>-1.21818</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>-0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>0.41975800000000002</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>1.21818</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="100">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79693999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.88341499999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.88341499999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.79693999999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.40606100000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.13991899999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.13991899999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.40606100000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.79693999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.88341499999999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.88341499999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.79693999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.40606100000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.13991899999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.13991899999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.40606100000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>1.89737</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="126">
+                  <c:v>1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.1878200000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.6269100000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.9067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.9999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.6090599999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1632499999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.60357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.51824E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.6502500000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.89737</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.21818</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.41975800000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.41975800000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.21818</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="191">
                   <c:v>2.3908200000000002</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="192">
                   <c:v>2.6502500000000002</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="193">
                   <c:v>2.6502500000000002</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="194">
                   <c:v>2.3908200000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.89737</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.21818</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.41975800000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.41975800000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.21818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1316,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B157-4FB9-85EB-F9454CE313F3}"/>
+              <c16:uniqueId val="{00000000-AADA-4B1B-9604-9621EA1E2F94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1029,11 +1329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="227971488"/>
-        <c:axId val="227964416"/>
+        <c:axId val="838260095"/>
+        <c:axId val="838257183"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227971488"/>
+        <c:axId val="838260095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1375,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227964416"/>
+        <c:crossAx val="838257183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227964416"/>
+        <c:axId val="838257183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1434,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227971488"/>
+        <c:crossAx val="838260095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,309 +1527,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'16QAM20bits'!$B$102:$B$201</c:f>
+              <c:f>'16QAM20bits'!$B$202:$B$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>3.8934000000000002</c:v>
+                  <c:v>1.99655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9977799999999999</c:v>
+                  <c:v>2.3228800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.66872600000000004</c:v>
+                  <c:v>2.6442399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.0468000000000002</c:v>
+                  <c:v>2.2808299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1289899999999999</c:v>
+                  <c:v>2.9675699999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.19875</c:v>
+                  <c:v>1.78379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4195899999999999</c:v>
+                  <c:v>1.6309899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.5223</c:v>
+                  <c:v>0.293877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.15456</c:v>
+                  <c:v>-0.151394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.0556200000000002</c:v>
+                  <c:v>-0.97753100000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26512</c:v>
+                  <c:v>-1.98271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.26247</c:v>
+                  <c:v>-2.7079300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.14645</c:v>
+                  <c:v>-2.8640300000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89980599999999999</c:v>
+                  <c:v>-3.08718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.9733700000000001</c:v>
+                  <c:v>-1.68971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66236899999999999</c:v>
+                  <c:v>-1.0815399999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7941800000000001</c:v>
+                  <c:v>-0.97647399999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4118300000000001</c:v>
+                  <c:v>0.43696699999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4696600000000002</c:v>
+                  <c:v>0.87248300000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.42659</c:v>
+                  <c:v>1.13192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9983499999999998E-2</c:v>
+                  <c:v>-2.72525</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.1484099999999999</c:v>
+                  <c:v>-1.4621999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.75114300000000001</c:v>
+                  <c:v>-0.55341700000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.3125099999999996</c:v>
+                  <c:v>0.49389100000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79363899999999998</c:v>
+                  <c:v>1.04166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4.5365099999999998</c:v>
+                  <c:v>1.7022999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0535999999999999</c:v>
+                  <c:v>3.13605</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.0791300000000001</c:v>
+                  <c:v>2.4736899999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.77017</c:v>
+                  <c:v>2.35703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.5243199999999999</c:v>
+                  <c:v>2.6726000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.80277</c:v>
+                  <c:v>2.3068</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4470799999999997</c:v>
+                  <c:v>1.09277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2658399999999999</c:v>
+                  <c:v>0.38126500000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4085800000000002</c:v>
+                  <c:v>-0.42432199999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0379</c:v>
+                  <c:v>-1.85364</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.73890999999999996</c:v>
+                  <c:v>-2.4282499999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.5561799999999999</c:v>
+                  <c:v>-1.7792699999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.1685099999999999</c:v>
+                  <c:v>-3.18527</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.416713</c:v>
+                  <c:v>-3.6024500000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.3644599999999998</c:v>
+                  <c:v>-2.5851099999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.40124</c:v>
+                  <c:v>-0.87849500000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4344199999999998</c:v>
+                  <c:v>-1.2267300000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3210199999999999</c:v>
+                  <c:v>-1.8344400000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.9451499999999999</c:v>
+                  <c:v>-1.5002500000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.92787699999999995</c:v>
+                  <c:v>-2.7724000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4531099999999999</c:v>
+                  <c:v>-1.3619600000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.6497600000000001</c:v>
+                  <c:v>-1.4990399999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.90873</c:v>
+                  <c:v>-1.5389200000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8101699999999998</c:v>
+                  <c:v>-0.59361900000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.83008199999999999</c:v>
+                  <c:v>0.63928399999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26738299999999998</c:v>
+                  <c:v>0.327513</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.17357</c:v>
+                  <c:v>2.3858700000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.420711</c:v>
+                  <c:v>1.37713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.7882800000000003</c:v>
+                  <c:v>1.96546</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.4178</c:v>
+                  <c:v>1.39002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.6519899999999996</c:v>
+                  <c:v>1.91137</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.2877900000000002</c:v>
+                  <c:v>1.9624900000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.476661</c:v>
+                  <c:v>0.66309799999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.03382</c:v>
+                  <c:v>0.69674899999999995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.756942</c:v>
+                  <c:v>-0.824299</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.3964300000000001</c:v>
+                  <c:v>-1.78779</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-8.1885100000000008</c:v>
+                  <c:v>-1.6696599999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.1334500000000001E-2</c:v>
+                  <c:v>-2.43418</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.06169</c:v>
+                  <c:v>-3.4445700000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.49656099999999997</c:v>
+                  <c:v>-3.2393900000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.3424400000000001</c:v>
+                  <c:v>-1.7417499999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0481400000000001</c:v>
+                  <c:v>-1.5190900000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.9917699999999998</c:v>
+                  <c:v>6.4317100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.56632099999999996</c:v>
+                  <c:v>0.61963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.39302799999999999</c:v>
+                  <c:v>1.4235100000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.61733899999999997</c:v>
+                  <c:v>2.1736200000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.15429</c:v>
+                  <c:v>2.8344399999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.0911499999999998</c:v>
+                  <c:v>2.1375199999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.59108099999999997</c:v>
+                  <c:v>2.3854799999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.8309700000000002</c:v>
+                  <c:v>2.6453600000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.4733799999999997</c:v>
+                  <c:v>1.7199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.7387600000000001</c:v>
+                  <c:v>1.5910299999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.0084900000000001</c:v>
+                  <c:v>0.77388800000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.2410000000000001</c:v>
+                  <c:v>-0.53972699999999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.65878099999999995</c:v>
+                  <c:v>-0.65992200000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.6204499999999999</c:v>
+                  <c:v>2.5367000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.582341</c:v>
+                  <c:v>2.0427499999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.79056000000000004</c:v>
+                  <c:v>3.0759099999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.26490200000000003</c:v>
+                  <c:v>2.7982200000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.42825200000000002</c:v>
+                  <c:v>1.86869</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.8397000000000001E-3</c:v>
+                  <c:v>2.3779499999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.5845699999999998</c:v>
+                  <c:v>6.3519000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.70733</c:v>
+                  <c:v>0.557701</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.34547600000000001</c:v>
+                  <c:v>-0.65471299999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.75035600000000002</c:v>
+                  <c:v>-1.64917</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.21909</c:v>
+                  <c:v>-1.2898499999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.34904</c:v>
+                  <c:v>-3.25048</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-2.1169799999999999</c:v>
+                  <c:v>-2.23611</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.5130499999999998</c:v>
+                  <c:v>-3.0853000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.68125400000000003</c:v>
+                  <c:v>-1.19868</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.06091</c:v>
+                  <c:v>-2.32172</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.0039400000000001</c:v>
+                  <c:v>-0.93990799999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.4648699999999999</c:v>
+                  <c:v>0.35796699999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.2321499999999999</c:v>
+                  <c:v>0.55971400000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.5483600000000002</c:v>
+                  <c:v>1.3444799999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.54265699999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.459926</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48949199999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.73323000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.94552599999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.35287099999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.42221</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.29333100000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.47081800000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.79722800000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.77904799999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.81400799999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.0351699999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.4166799999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.4522200000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.3945799999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.104936</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.153531</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.22034400000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.35554</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2680800000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6894800000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.67547</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.25484</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0158100000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.3633600000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.80694</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.26667</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.56159499999999996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.35133199999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.214723</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.3267500000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.82727300000000004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.0684100000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.4398899999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.98146</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.0665399999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.41679</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.2794700000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.18957399999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.5497099999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.2427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.32748</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.5737300000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0737000000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.81377999999999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.980514</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-6.0830200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.87368</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.1167400000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.7614099999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-3.1206800000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.4862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.1613500000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.2559899999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.23265</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.64610400000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.214231</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.27574399999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.49779</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.29649399999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.6386700000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.9662900000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.20722</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.5035799999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.0385900000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.1097399999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.87767200000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.676562</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2504200000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.17108499999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.79395000000000004</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.28101</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.0070800000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.1262799999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.42753</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.16052</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.13584499999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.27909400000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.47936899999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.2900400000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.5177800000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.9765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.8011599999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.2882699999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-2.0149599999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.74827900000000003</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.309089</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.14676800000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1093999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.0275300000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.7991999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.70458</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.6250199999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.04583</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.9491700000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.47509</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-7.1511699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.55476099999999995</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.95916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +2137,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8D2-46AC-BB5B-AEAC95E43E76}"/>
+              <c16:uniqueId val="{00000000-74FB-43D6-8421-666E27EF933A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1550,11 +2150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="280827936"/>
-        <c:axId val="280842496"/>
+        <c:axId val="924573151"/>
+        <c:axId val="924571487"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280827936"/>
+        <c:axId val="924573151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +2196,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280842496"/>
+        <c:crossAx val="924571487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1604,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280842496"/>
+        <c:axId val="924571487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +2255,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280827936"/>
+        <c:crossAx val="924573151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2827,23 +3427,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA9DCE8-9A38-480F-9A23-A115B3DCB531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4C8704-E286-4304-8ACF-788F20FC64EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,13 +3467,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2881,7 +3481,7 @@
         <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70656ED3-2796-41E8-822E-C827D84F31FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E5ADC0-D2EC-47FA-8FB8-60680D5F5D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,15 +3801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="R110" sqref="R110"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="Q177" sqref="Q177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3217,79 +3817,79 @@
         <v>1.89737</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.89737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3297,79 +3897,79 @@
         <v>-1.89737</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.89737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3377,79 +3977,79 @@
         <v>-1.89737</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1.89737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3457,239 +4057,239 @@
         <v>1.89737</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.89737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.63245600000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.1878200000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.6269100000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.9067499999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.9999400000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.89737</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.6090599999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.1632499999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.60357700000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.51824E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.51824E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.63245600000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.1878200000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.6269100000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.9067499999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-1.9999400000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-1.89737</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.6090599999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-1.1632499999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.60357700000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.51824E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.51824E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3697,7 +4297,7 @@
         <v>-1.89737</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3705,7 +4305,7 @@
         <v>-2.3908200000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3713,7 +4313,7 @@
         <v>-2.6502500000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3721,7 +4321,7 @@
         <v>-2.6502500000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3729,7 +4329,7 @@
         <v>-2.3908200000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3737,7 +4337,7 @@
         <v>-1.89737</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3745,7 +4345,7 @@
         <v>-1.21818</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3753,7 +4353,7 @@
         <v>-0.41975800000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3761,7 +4361,7 @@
         <v>0.41975800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3769,7 +4369,7 @@
         <v>1.21818</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3777,7 +4377,7 @@
         <v>1.89737</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3785,7 +4385,7 @@
         <v>2.3908200000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3793,7 +4393,7 @@
         <v>2.6502500000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3801,7 +4401,7 @@
         <v>2.6502500000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3809,7 +4409,7 @@
         <v>2.3908200000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3817,7 +4417,7 @@
         <v>1.89737</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3825,7 +4425,7 @@
         <v>1.21818</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3833,7 +4433,7 @@
         <v>0.41975800000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3841,7 +4441,7 @@
         <v>-0.41975800000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3849,7 +4449,7 @@
         <v>-1.21818</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3857,79 +4457,79 @@
         <v>1.89737</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-1.89737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3937,876 +4537,2476 @@
         <v>-1.89737</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-1.21818</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.41975800000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.21818</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.89737</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.3908200000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2.6502500000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.79693999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.88341499999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.88341499999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.79693999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.40606100000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.13991899999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>-0.13991899999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>-0.40606100000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>-0.79693999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>-0.88341499999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>-0.88341499999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>-0.79693999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>-0.40606100000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>-0.13991899999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.13991899999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.40606100000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>-1.51824E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>-1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>-1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>-1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>-1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>-1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>-1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>-0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1.51824E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1.51824E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>-0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>-1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>-1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>-1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>-1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>-1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>-1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>-1.51824E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>-0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>-1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>-1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>-1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>-1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>-1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>-1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>-0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1.51824E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.63245600000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1.1878200000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1.6269100000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1.9067499999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1.9999400000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1.6090599999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1.1632499999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.60357700000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>-1.51824E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>-2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>-2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>-1.89737</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
         <v>2.3908200000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2.6502500000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2.3908200000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1.89737</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1.21818</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>-0.41975800000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>-1.21818</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>0</v>
       </c>
-      <c r="B102">
-        <v>3.8934000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103">
+      <c r="B202">
+        <v>1.99655</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>1</v>
       </c>
-      <c r="B103">
-        <v>1.9977799999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104">
+      <c r="B203">
+        <v>2.3228800000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>2</v>
       </c>
-      <c r="B104">
-        <v>-0.66872600000000004</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105">
+      <c r="B204">
+        <v>2.6442399999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>3</v>
       </c>
-      <c r="B105">
-        <v>-4.0468000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106">
+      <c r="B205">
+        <v>2.2808299999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>4</v>
       </c>
-      <c r="B106">
-        <v>3.1289899999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107">
+      <c r="B206">
+        <v>2.9675699999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>5</v>
       </c>
-      <c r="B107">
-        <v>-2.19875</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108">
+      <c r="B207">
+        <v>1.78379</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>6</v>
       </c>
-      <c r="B108">
-        <v>-1.4195899999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109">
+      <c r="B208">
+        <v>1.6309899999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>7</v>
       </c>
-      <c r="B109">
-        <v>-3.5223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110">
+      <c r="B209">
+        <v>0.293877</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>8</v>
       </c>
-      <c r="B110">
-        <v>-4.15456</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111">
+      <c r="B210">
+        <v>-0.151394</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>9</v>
       </c>
-      <c r="B111">
-        <v>-4.0556200000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112">
+      <c r="B211">
+        <v>-0.97753100000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>10</v>
       </c>
-      <c r="B112">
-        <v>1.26512</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113">
+      <c r="B212">
+        <v>-1.98271</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>11</v>
       </c>
-      <c r="B113">
-        <v>2.26247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114">
+      <c r="B213">
+        <v>-2.7079300000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>12</v>
       </c>
-      <c r="B114">
-        <v>-1.14645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115">
+      <c r="B214">
+        <v>-2.8640300000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>13</v>
       </c>
-      <c r="B115">
-        <v>0.89980599999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116">
+      <c r="B215">
+        <v>-3.08718</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>14</v>
       </c>
-      <c r="B116">
-        <v>-1.9733700000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117">
+      <c r="B216">
+        <v>-1.68971</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>15</v>
       </c>
-      <c r="B117">
-        <v>0.66236899999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118">
+      <c r="B217">
+        <v>-1.0815399999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>16</v>
       </c>
-      <c r="B118">
-        <v>1.7941800000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119">
+      <c r="B218">
+        <v>-0.97647399999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>17</v>
       </c>
-      <c r="B119">
-        <v>2.4118300000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120">
+      <c r="B219">
+        <v>0.43696699999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>18</v>
       </c>
-      <c r="B120">
-        <v>3.4696600000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121">
+      <c r="B220">
+        <v>0.87248300000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>19</v>
       </c>
-      <c r="B121">
-        <v>2.42659</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122">
+      <c r="B221">
+        <v>1.13192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>20</v>
       </c>
-      <c r="B122">
-        <v>3.9983499999999998E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123">
+      <c r="B222">
+        <v>-2.72525</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>21</v>
       </c>
-      <c r="B123">
-        <v>-1.1484099999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124">
+      <c r="B223">
+        <v>-1.4621999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>22</v>
       </c>
-      <c r="B124">
-        <v>0.75114300000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125">
+      <c r="B224">
+        <v>-0.55341700000000005</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
         <v>23</v>
       </c>
-      <c r="B125">
-        <v>-4.3125099999999996</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126">
+      <c r="B225">
+        <v>0.49389100000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
         <v>24</v>
       </c>
-      <c r="B126">
-        <v>0.79363899999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127">
+      <c r="B226">
+        <v>1.04166</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
         <v>25</v>
       </c>
-      <c r="B127">
-        <v>-4.5365099999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128">
+      <c r="B227">
+        <v>1.7022999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
         <v>26</v>
       </c>
-      <c r="B128">
-        <v>3.0535999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129">
+      <c r="B228">
+        <v>3.13605</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
         <v>27</v>
       </c>
-      <c r="B129">
-        <v>-2.0791300000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130">
+      <c r="B229">
+        <v>2.4736899999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
         <v>28</v>
       </c>
-      <c r="B130">
-        <v>1.77017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131">
+      <c r="B230">
+        <v>2.35703</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
         <v>29</v>
       </c>
-      <c r="B131">
-        <v>-1.5243199999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132">
+      <c r="B231">
+        <v>2.6726000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
         <v>30</v>
       </c>
-      <c r="B132">
-        <v>1.80277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133">
+      <c r="B232">
+        <v>2.3068</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
         <v>31</v>
       </c>
-      <c r="B133">
-        <v>5.4470799999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134">
+      <c r="B233">
+        <v>1.09277</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
         <v>32</v>
       </c>
-      <c r="B134">
-        <v>4.2658399999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135">
+      <c r="B234">
+        <v>0.38126500000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
         <v>33</v>
       </c>
-      <c r="B135">
-        <v>2.4085800000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136">
+      <c r="B235">
+        <v>-0.42432199999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
         <v>34</v>
       </c>
-      <c r="B136">
-        <v>1.0379</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137">
+      <c r="B236">
+        <v>-1.85364</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>35</v>
       </c>
-      <c r="B137">
-        <v>0.73890999999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138">
+      <c r="B237">
+        <v>-2.4282499999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>36</v>
       </c>
-      <c r="B138">
-        <v>-2.5561799999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139">
+      <c r="B238">
+        <v>-1.7792699999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>37</v>
       </c>
-      <c r="B139">
-        <v>-2.1685099999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140">
+      <c r="B239">
+        <v>-3.18527</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
         <v>38</v>
       </c>
-      <c r="B140">
-        <v>-0.416713</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141">
+      <c r="B240">
+        <v>-3.6024500000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
         <v>39</v>
       </c>
-      <c r="B141">
-        <v>-2.3644599999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142">
+      <c r="B241">
+        <v>-2.5851099999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
         <v>40</v>
       </c>
-      <c r="B142">
-        <v>-2.40124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143">
+      <c r="B242">
+        <v>-0.87849500000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>41</v>
       </c>
-      <c r="B143">
-        <v>2.4344199999999998</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144">
+      <c r="B243">
+        <v>-1.2267300000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
         <v>42</v>
       </c>
-      <c r="B144">
-        <v>4.3210199999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145">
+      <c r="B244">
+        <v>-1.8344400000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>43</v>
       </c>
-      <c r="B145">
-        <v>3.9451499999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146">
+      <c r="B245">
+        <v>-1.5002500000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
         <v>44</v>
       </c>
-      <c r="B146">
-        <v>-0.92787699999999995</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147">
+      <c r="B246">
+        <v>-2.7724000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
         <v>45</v>
       </c>
-      <c r="B147">
-        <v>1.4531099999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148">
+      <c r="B247">
+        <v>-1.3619600000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
         <v>46</v>
       </c>
-      <c r="B148">
-        <v>-2.6497600000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149">
+      <c r="B248">
+        <v>-1.4990399999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
         <v>47</v>
       </c>
-      <c r="B149">
-        <v>-1.90873</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150">
+      <c r="B249">
+        <v>-1.5389200000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
         <v>48</v>
       </c>
-      <c r="B150">
-        <v>2.8101699999999998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151">
+      <c r="B250">
+        <v>-0.59361900000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
         <v>49</v>
       </c>
-      <c r="B151">
-        <v>0.83008199999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152">
+      <c r="B251">
+        <v>0.63928399999999996</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
         <v>50</v>
       </c>
-      <c r="B152">
-        <v>0.26738299999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153">
+      <c r="B252">
+        <v>0.327513</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
         <v>51</v>
       </c>
-      <c r="B153">
-        <v>1.17357</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154">
+      <c r="B253">
+        <v>2.3858700000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
         <v>52</v>
       </c>
-      <c r="B154">
-        <v>0.420711</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155">
+      <c r="B254">
+        <v>1.37713</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
         <v>53</v>
       </c>
-      <c r="B155">
-        <v>-4.7882800000000003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156">
+      <c r="B255">
+        <v>1.96546</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
         <v>54</v>
       </c>
-      <c r="B156">
-        <v>0.4178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157">
+      <c r="B256">
+        <v>1.39002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
         <v>55</v>
       </c>
-      <c r="B157">
-        <v>-4.6519899999999996</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158">
+      <c r="B257">
+        <v>1.91137</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
         <v>56</v>
       </c>
-      <c r="B158">
-        <v>-3.2877900000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159">
+      <c r="B258">
+        <v>1.9624900000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
         <v>57</v>
       </c>
-      <c r="B159">
-        <v>-0.476661</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160">
+      <c r="B259">
+        <v>0.66309799999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
         <v>58</v>
       </c>
-      <c r="B160">
-        <v>-2.03382</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161">
+      <c r="B260">
+        <v>0.69674899999999995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
         <v>59</v>
       </c>
-      <c r="B161">
-        <v>-0.756942</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162">
+      <c r="B261">
+        <v>-0.824299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
         <v>60</v>
       </c>
-      <c r="B162">
-        <v>-3.3964300000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163">
+      <c r="B262">
+        <v>-1.78779</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
         <v>61</v>
       </c>
-      <c r="B163">
-        <v>-8.1885100000000008</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164">
+      <c r="B263">
+        <v>-1.6696599999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
         <v>62</v>
       </c>
-      <c r="B164">
-        <v>-3.1334500000000001E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165">
+      <c r="B264">
+        <v>-2.43418</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
         <v>63</v>
       </c>
-      <c r="B165">
-        <v>-2.06169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166">
+      <c r="B265">
+        <v>-3.4445700000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
         <v>64</v>
       </c>
-      <c r="B166">
-        <v>0.49656099999999997</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167">
+      <c r="B266">
+        <v>-3.2393900000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
         <v>65</v>
       </c>
-      <c r="B167">
-        <v>-1.3424400000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168">
+      <c r="B267">
+        <v>-1.7417499999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
         <v>66</v>
       </c>
-      <c r="B168">
-        <v>2.0481400000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169">
+      <c r="B268">
+        <v>-1.5190900000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
         <v>67</v>
       </c>
-      <c r="B169">
-        <v>2.9917699999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170">
+      <c r="B269">
+        <v>6.4317100000000002E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
         <v>68</v>
       </c>
-      <c r="B170">
-        <v>0.56632099999999996</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171">
+      <c r="B270">
+        <v>0.61963000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
         <v>69</v>
       </c>
-      <c r="B171">
-        <v>-0.39302799999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172">
+      <c r="B271">
+        <v>1.4235100000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
         <v>70</v>
       </c>
-      <c r="B172">
-        <v>0.61733899999999997</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173">
+      <c r="B272">
+        <v>2.1736200000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
         <v>71</v>
       </c>
-      <c r="B173">
-        <v>-1.15429</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174">
+      <c r="B273">
+        <v>2.8344399999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
         <v>72</v>
       </c>
-      <c r="B174">
-        <v>-2.0911499999999998</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175">
+      <c r="B274">
+        <v>2.1375199999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
         <v>73</v>
       </c>
-      <c r="B175">
-        <v>-0.59108099999999997</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176">
+      <c r="B275">
+        <v>2.3854799999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
         <v>74</v>
       </c>
-      <c r="B176">
-        <v>2.8309700000000002</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177">
+      <c r="B276">
+        <v>2.6453600000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>75</v>
       </c>
-      <c r="B177">
-        <v>4.4733799999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178">
+      <c r="B277">
+        <v>1.7199</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
         <v>76</v>
       </c>
-      <c r="B178">
-        <v>3.7387600000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179">
+      <c r="B278">
+        <v>1.5910299999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
         <v>77</v>
       </c>
-      <c r="B179">
-        <v>-1.0084900000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180">
+      <c r="B279">
+        <v>0.77388800000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
         <v>78</v>
       </c>
-      <c r="B180">
-        <v>2.2410000000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181">
+      <c r="B280">
+        <v>-0.53972699999999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
         <v>79</v>
       </c>
-      <c r="B181">
-        <v>-0.65878099999999995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182">
+      <c r="B281">
+        <v>-0.65992200000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
         <v>80</v>
       </c>
-      <c r="B182">
-        <v>1.6204499999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183">
+      <c r="B282">
+        <v>2.5367000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
         <v>81</v>
       </c>
-      <c r="B183">
-        <v>0.582341</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184">
+      <c r="B283">
+        <v>2.0427499999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
         <v>82</v>
       </c>
-      <c r="B184">
-        <v>0.79056000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185">
+      <c r="B284">
+        <v>3.0759099999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
         <v>83</v>
       </c>
-      <c r="B185">
-        <v>0.26490200000000003</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186">
+      <c r="B285">
+        <v>2.7982200000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
         <v>84</v>
       </c>
-      <c r="B186">
-        <v>-0.42825200000000002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187">
+      <c r="B286">
+        <v>1.86869</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
         <v>85</v>
       </c>
-      <c r="B187">
-        <v>-3.8397000000000001E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188">
+      <c r="B287">
+        <v>2.3779499999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
         <v>86</v>
       </c>
-      <c r="B188">
-        <v>-2.5845699999999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189">
+      <c r="B288">
+        <v>6.3519000000000006E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
         <v>87</v>
       </c>
-      <c r="B189">
-        <v>-1.70733</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190">
+      <c r="B289">
+        <v>0.557701</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
         <v>88</v>
       </c>
-      <c r="B190">
-        <v>-0.34547600000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191">
+      <c r="B290">
+        <v>-0.65471299999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
         <v>89</v>
       </c>
-      <c r="B191">
-        <v>0.75035600000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192">
+      <c r="B291">
+        <v>-1.64917</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
         <v>90</v>
       </c>
-      <c r="B192">
-        <v>-2.21909</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193">
+      <c r="B292">
+        <v>-1.2898499999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
         <v>91</v>
       </c>
-      <c r="B193">
-        <v>2.34904</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194">
+      <c r="B293">
+        <v>-3.25048</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
         <v>92</v>
       </c>
-      <c r="B194">
-        <v>-2.1169799999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195">
+      <c r="B294">
+        <v>-2.23611</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
         <v>93</v>
       </c>
-      <c r="B195">
-        <v>-2.5130499999999998</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196">
+      <c r="B295">
+        <v>-3.0853000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
         <v>94</v>
       </c>
-      <c r="B196">
-        <v>0.68125400000000003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197">
+      <c r="B296">
+        <v>-1.19868</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
         <v>95</v>
       </c>
-      <c r="B197">
-        <v>1.06091</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198">
+      <c r="B297">
+        <v>-2.32172</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
         <v>96</v>
       </c>
-      <c r="B198">
-        <v>4.0039400000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199">
+      <c r="B298">
+        <v>-0.93990799999999997</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
         <v>97</v>
       </c>
-      <c r="B199">
-        <v>3.4648699999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200">
+      <c r="B299">
+        <v>0.35796699999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
         <v>98</v>
       </c>
-      <c r="B200">
-        <v>2.2321499999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201">
+      <c r="B300">
+        <v>0.55971400000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
         <v>99</v>
       </c>
-      <c r="B201">
-        <v>3.5483600000000002</v>
+      <c r="B301">
+        <v>1.3444799999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>100</v>
+      </c>
+      <c r="B302">
+        <v>0.54265699999999994</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>101</v>
+      </c>
+      <c r="B303">
+        <v>0.459926</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>102</v>
+      </c>
+      <c r="B304">
+        <v>0.48949199999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>103</v>
+      </c>
+      <c r="B305">
+        <v>0.73323000000000005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>104</v>
+      </c>
+      <c r="B306">
+        <v>0.94552599999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>105</v>
+      </c>
+      <c r="B307">
+        <v>0.35287099999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>106</v>
+      </c>
+      <c r="B308">
+        <v>1.42221</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>107</v>
+      </c>
+      <c r="B309">
+        <v>0.29333100000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>108</v>
+      </c>
+      <c r="B310">
+        <v>-0.47081800000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>109</v>
+      </c>
+      <c r="B311">
+        <v>-0.79722800000000005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>110</v>
+      </c>
+      <c r="B312">
+        <v>-0.77904799999999996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>111</v>
+      </c>
+      <c r="B313">
+        <v>-0.81400799999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>112</v>
+      </c>
+      <c r="B314">
+        <v>-1.0351699999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>113</v>
+      </c>
+      <c r="B315">
+        <v>-1.4166799999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>114</v>
+      </c>
+      <c r="B316">
+        <v>-1.4522200000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>115</v>
+      </c>
+      <c r="B317">
+        <v>-1.3945799999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>116</v>
+      </c>
+      <c r="B318">
+        <v>-0.104936</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>117</v>
+      </c>
+      <c r="B319">
+        <v>-0.153531</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>118</v>
+      </c>
+      <c r="B320">
+        <v>0.22034400000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>119</v>
+      </c>
+      <c r="B321">
+        <v>1.35554</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>120</v>
+      </c>
+      <c r="B322">
+        <v>1.2680800000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>121</v>
+      </c>
+      <c r="B323">
+        <v>1.6894800000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>122</v>
+      </c>
+      <c r="B324">
+        <v>1.67547</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>123</v>
+      </c>
+      <c r="B325">
+        <v>1.25484</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>124</v>
+      </c>
+      <c r="B326">
+        <v>2.0158100000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>125</v>
+      </c>
+      <c r="B327">
+        <v>2.3633600000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>126</v>
+      </c>
+      <c r="B328">
+        <v>1.80694</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>127</v>
+      </c>
+      <c r="B329">
+        <v>1.26667</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>128</v>
+      </c>
+      <c r="B330">
+        <v>0.56159499999999996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>129</v>
+      </c>
+      <c r="B331">
+        <v>0.35133199999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>130</v>
+      </c>
+      <c r="B332">
+        <v>-0.214723</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>131</v>
+      </c>
+      <c r="B333">
+        <v>-1.3267500000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>132</v>
+      </c>
+      <c r="B334">
+        <v>-0.82727300000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>133</v>
+      </c>
+      <c r="B335">
+        <v>-1.0684100000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>134</v>
+      </c>
+      <c r="B336">
+        <v>-1.4398899999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>135</v>
+      </c>
+      <c r="B337">
+        <v>-1.98146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>136</v>
+      </c>
+      <c r="B338">
+        <v>-3.0665399999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>137</v>
+      </c>
+      <c r="B339">
+        <v>-1.41679</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>138</v>
+      </c>
+      <c r="B340">
+        <v>-1.2794700000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>139</v>
+      </c>
+      <c r="B341">
+        <v>0.18957399999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>140</v>
+      </c>
+      <c r="B342">
+        <v>1.5497099999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>141</v>
+      </c>
+      <c r="B343">
+        <v>3.2427299999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>142</v>
+      </c>
+      <c r="B344">
+        <v>1.32748</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>143</v>
+      </c>
+      <c r="B345">
+        <v>1.5737300000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>144</v>
+      </c>
+      <c r="B346">
+        <v>1.0737000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>145</v>
+      </c>
+      <c r="B347">
+        <v>0.81377999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>146</v>
+      </c>
+      <c r="B348">
+        <v>0.980514</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>147</v>
+      </c>
+      <c r="B349">
+        <v>-6.0830200000000001E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>148</v>
+      </c>
+      <c r="B350">
+        <v>-1.87368</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>149</v>
+      </c>
+      <c r="B351">
+        <v>-1.1167400000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>150</v>
+      </c>
+      <c r="B352">
+        <v>-1.7614099999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>151</v>
+      </c>
+      <c r="B353">
+        <v>-3.1206800000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>152</v>
+      </c>
+      <c r="B354">
+        <v>-2.4862000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>153</v>
+      </c>
+      <c r="B355">
+        <v>-1.1613500000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>154</v>
+      </c>
+      <c r="B356">
+        <v>-1.2559899999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>155</v>
+      </c>
+      <c r="B357">
+        <v>-1.23265</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>156</v>
+      </c>
+      <c r="B358">
+        <v>0.64610400000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>157</v>
+      </c>
+      <c r="B359">
+        <v>-0.214231</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>158</v>
+      </c>
+      <c r="B360">
+        <v>0.27574399999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>159</v>
+      </c>
+      <c r="B361">
+        <v>1.49779</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>160</v>
+      </c>
+      <c r="B362">
+        <v>-0.29649399999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>161</v>
+      </c>
+      <c r="B363">
+        <v>-1.6386700000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>162</v>
+      </c>
+      <c r="B364">
+        <v>-1.9662900000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>163</v>
+      </c>
+      <c r="B365">
+        <v>-1.20722</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>164</v>
+      </c>
+      <c r="B366">
+        <v>-2.5035799999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>165</v>
+      </c>
+      <c r="B367">
+        <v>-2.0385900000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>166</v>
+      </c>
+      <c r="B368">
+        <v>-1.1097399999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>167</v>
+      </c>
+      <c r="B369">
+        <v>-0.87767200000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>168</v>
+      </c>
+      <c r="B370">
+        <v>-0.676562</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>169</v>
+      </c>
+      <c r="B371">
+        <v>1.2504200000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>170</v>
+      </c>
+      <c r="B372">
+        <v>-0.17108499999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>171</v>
+      </c>
+      <c r="B373">
+        <v>0.79395000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>172</v>
+      </c>
+      <c r="B374">
+        <v>1.28101</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>173</v>
+      </c>
+      <c r="B375">
+        <v>2.0070800000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>174</v>
+      </c>
+      <c r="B376">
+        <v>2.1262799999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>175</v>
+      </c>
+      <c r="B377">
+        <v>2.42753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>176</v>
+      </c>
+      <c r="B378">
+        <v>2.16052</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>177</v>
+      </c>
+      <c r="B379">
+        <v>0.13584499999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>178</v>
+      </c>
+      <c r="B380">
+        <v>0.27909400000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>179</v>
+      </c>
+      <c r="B381">
+        <v>0.47936899999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>180</v>
+      </c>
+      <c r="B382">
+        <v>-1.2900400000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>181</v>
+      </c>
+      <c r="B383">
+        <v>-2.5177800000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>182</v>
+      </c>
+      <c r="B384">
+        <v>-2.9765000000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>183</v>
+      </c>
+      <c r="B385">
+        <v>-2.8011599999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>184</v>
+      </c>
+      <c r="B386">
+        <v>-2.2882699999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>185</v>
+      </c>
+      <c r="B387">
+        <v>-2.0149599999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>186</v>
+      </c>
+      <c r="B388">
+        <v>-0.74827900000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>187</v>
+      </c>
+      <c r="B389">
+        <v>0.309089</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>188</v>
+      </c>
+      <c r="B390">
+        <v>0.14676800000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>189</v>
+      </c>
+      <c r="B391">
+        <v>1.1093999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>190</v>
+      </c>
+      <c r="B392">
+        <v>2.0275300000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>191</v>
+      </c>
+      <c r="B393">
+        <v>1.7991999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>192</v>
+      </c>
+      <c r="B394">
+        <v>3.70458</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>193</v>
+      </c>
+      <c r="B395">
+        <v>1.6250199999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>194</v>
+      </c>
+      <c r="B396">
+        <v>2.04583</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>195</v>
+      </c>
+      <c r="B397">
+        <v>1.9491700000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>196</v>
+      </c>
+      <c r="B398">
+        <v>1.47509</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>197</v>
+      </c>
+      <c r="B399">
+        <v>-7.1511699999999997E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>198</v>
+      </c>
+      <c r="B400">
+        <v>-0.55476099999999995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>199</v>
+      </c>
+      <c r="B401">
+        <v>-1.95916</v>
       </c>
     </row>
   </sheetData>
